--- a/cEx.xlsx
+++ b/cEx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack D\PycharmProjects\FixNCleanProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jav14\PycharmProjects\FixNCleanProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74387E1-AE33-41B9-9E9C-0753CA311FFA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E8D6F8-984A-4238-82D9-EE395FA305A2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>234 TEST</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -751,29 +763,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" activeCellId="1" sqref="H23 H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="101.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" customWidth="1"/>
+    <col min="12" max="12" width="101.59765625" customWidth="1"/>
+    <col min="13" max="13" width="20.73046875" customWidth="1"/>
+    <col min="14" max="14" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="47.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -831,7 +843,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -855,7 +867,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -881,7 +893,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -897,13 +909,15 @@
       <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -929,7 +943,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -955,7 +969,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -981,7 +995,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1019,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1023,13 +1037,15 @@
       <c r="G10" s="12">
         <v>4</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1053,7 +1069,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1093,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1119,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1143,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1167,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1169,13 +1185,15 @@
       <c r="G16" s="12">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1217,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1215,13 +1233,15 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1245,7 +1265,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1269,7 +1289,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
